--- a/db/NCCU-121-PersonalFeature.xlsx
+++ b/db/NCCU-121-PersonalFeature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230BB57F-1A9E-CC46-8B15-2E8B570CD742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00C0B97-E451-504F-9795-481DD719D9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35660" yWindow="7580" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="-31820" yWindow="7420" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonalFeature" sheetId="1" r:id="rId1"/>

--- a/db/NCCU-121-PersonalFeature.xlsx
+++ b/db/NCCU-121-PersonalFeature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00C0B97-E451-504F-9795-481DD719D9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12D941D-4A69-B94E-AEE7-566E87FF68E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31820" yWindow="7420" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="7300" yWindow="3640" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonalFeature" sheetId="1" r:id="rId1"/>
@@ -64,35 +64,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Figure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-121-王台鳳.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">學歷：
-&lt;dl&gt;
+&lt;ul&gt;
    &lt;li&gt;1971年畢業於國立政治大學銀行系&lt;/li&gt;
-&lt;/dl&gt;
+&lt;/ul&gt;
 經歷：
-&lt;dl&gt;
+&lt;ul&gt;
    &lt;li&gt;1972年 入中華電信股份有限公司（前臺北電話局）服務。&lt;/li&gt;
    &lt;li&gt; 1992年 從事黃頁（Yellow Pages 電話號碼簿）業務擔任科長職務。 &lt;/li&gt;
    &lt;li&gt;    2007年-2015年 中華國際黃頁股份有限公司精策處經理。 資深黃頁工作者。 &lt;/li&gt;
-&lt;/dl&gt;
+&lt;/ul&gt;
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;dl&gt;
+    <t>&lt;ul&gt;
     &lt;li&gt; &lt;a href="file/NCCU-121-黃頁_電話號碼簿的故事-20191002-H.pdf"&gt;黃頁的前世今生&lt;/a&gt; &lt;/li&gt;
-&lt;/dl&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Figure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/NCCU-121-王台鳳.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
+&lt;/ul&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +469,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -491,7 +491,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="2" spans="1:6" ht="304">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -511,13 +511,13 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/db/NCCU-121-PersonalFeature.xlsx
+++ b/db/NCCU-121-PersonalFeature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12D941D-4A69-B94E-AEE7-566E87FF68E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88433586-CC45-1747-8E70-221BB672C175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7300" yWindow="3640" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,14 @@
     <t>&lt;ul&gt;
     &lt;li&gt; &lt;a href="file/NCCU-121-黃頁_電話號碼簿的故事-20191002-H.pdf"&gt;黃頁的前世今生&lt;/a&gt; &lt;/li&gt;
 &lt;/ul&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,13 +471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -520,6 +528,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/NCCU-121-PersonalFeature.xlsx
+++ b/db/NCCU-121-PersonalFeature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88433586-CC45-1747-8E70-221BB672C175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5EAE23-18E8-AD45-9AF8-28B55135CD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7300" yWindow="3640" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,17 +90,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;ul&gt;
-    &lt;li&gt; &lt;a href="file/NCCU-121-黃頁_電話號碼簿的故事-20191002-H.pdf"&gt;黃頁的前世今生&lt;/a&gt; &lt;/li&gt;
+    &lt;li&gt; &lt;a href="file/NCCU-121-黃頁的前世今生-20211102.pdf"&gt;黃頁的前世今生&lt;/a&gt; &lt;/li&gt;
 &lt;/ul&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
+    <t>王文枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-121-王文枝.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+    &lt;li&gt; &lt;a href="file/NCCU-121-愛情傳奇指南山下-20211102.pdf"&gt;愛情傳奇-指南山下&lt;/a&gt; &lt;/li&gt;
+&lt;/ul&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +487,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -525,18 +535,24 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="80">
+      <c r="A3" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/db/NCCU-121-PersonalFeature.xlsx
+++ b/db/NCCU-121-PersonalFeature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5EAE23-18E8-AD45-9AF8-28B55135CD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9375F9-EB62-CB44-ABDD-121C5DF908AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7300" yWindow="3640" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="7340" yWindow="4940" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonalFeature" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,37 @@
   <si>
     <t>&lt;ul&gt;
     &lt;li&gt; &lt;a href="file/NCCU-121-愛情傳奇指南山下-20211102.pdf"&gt;愛情傳奇-指南山下&lt;/a&gt; &lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>fig/NCCU-121-孫全玉.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫全玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">學歷：
+&lt;ul&gt;
+   &lt;li&gt;1971年畢業於國立政治大學銀行系&lt;/li&gt;
+&lt;/ul&gt;
+經歷：
+&lt;ul&gt;
+   &lt;li&gt;中央銀行金融業務檢查處處長&lt;/li&gt;
+   &lt;li&gt;  2000年7月至2004年6月  擔任中央銀行駐紐約代表辦事處主任 &lt;/li&gt;
+&lt;/ul&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+    &lt;li&gt; &lt;a href="file/NCCU-121-911事件回憶錄-20210912.pdf"&gt;911事件回憶錄&lt;/a&gt; &lt;/li&gt;
+    &lt;li&gt; &lt;a href="file/NCCU-121-我是麻將資優生-20211102.pdf"&gt;我是麻將資優生&lt;/a&gt; &lt;/li&gt;
 &lt;/ul&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -555,6 +586,26 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:6" ht="224">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/NCCU-121-PersonalFeature.xlsx
+++ b/db/NCCU-121-PersonalFeature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9375F9-EB62-CB44-ABDD-121C5DF908AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E0988D-5079-C041-A6EC-934FFF1420AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="4940" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="13960" yWindow="4900" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonalFeature" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,19 @@
     &lt;li&gt; &lt;a href="file/NCCU-121-911事件回憶錄-20210912.pdf"&gt;911事件回憶錄&lt;/a&gt; &lt;/li&gt;
     &lt;li&gt; &lt;a href="file/NCCU-121-我是麻將資優生-20211102.pdf"&gt;我是麻將資優生&lt;/a&gt; &lt;/li&gt;
 &lt;/ul&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">學歷：
+&lt;ul&gt;
+   &lt;li&gt;1971年畢業於國立政治大學銀行系&lt;/li&gt;
+&lt;/ul&gt;
+經歷：
+&lt;ul&gt;
+   &lt;li&gt;1975年 成立貿易公司，行騙天下。&lt;/li&gt;
+   &lt;li&gt;2005年 正式退休，開啟無聊人生。 &lt;/li&gt;
+&lt;/ul&gt;
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,10 +528,10 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -569,7 +582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="80">
+    <row r="3" spans="1:6" ht="208">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -581,6 +594,9 @@
       </c>
       <c r="D3" t="s">
         <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>

--- a/db/NCCU-121-PersonalFeature.xlsx
+++ b/db/NCCU-121-PersonalFeature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E0988D-5079-C041-A6EC-934FFF1420AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DE9F9C-3887-8E42-8DC4-5251CFED1311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13960" yWindow="4900" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="11600" yWindow="4900" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonalFeature" sheetId="1" r:id="rId1"/>
@@ -138,13 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;ul&gt;
-    &lt;li&gt; &lt;a href="file/NCCU-121-911事件回憶錄-20210912.pdf"&gt;911事件回憶錄&lt;/a&gt; &lt;/li&gt;
-    &lt;li&gt; &lt;a href="file/NCCU-121-我是麻將資優生-20211102.pdf"&gt;我是麻將資優生&lt;/a&gt; &lt;/li&gt;
-&lt;/ul&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">學歷：
 &lt;ul&gt;
    &lt;li&gt;1971年畢業於國立政治大學銀行系&lt;/li&gt;
@@ -155,6 +148,13 @@
    &lt;li&gt;2005年 正式退休，開啟無聊人生。 &lt;/li&gt;
 &lt;/ul&gt;
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+    &lt;li&gt; &lt;a href="file/NCCU-121-911事件回憶錄-20210912.pdf"&gt;911事件回憶錄&lt;/a&gt; &lt;/li&gt;
+    &lt;li&gt; &lt;a href="file/NCCU-121-我是麻將資優生-20211104.pdf"&gt;我是麻將資優生&lt;/a&gt; &lt;/li&gt;
+&lt;/ul&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +531,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -596,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -619,7 +619,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/db/NCCU-121-PersonalFeature.xlsx
+++ b/db/NCCU-121-PersonalFeature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DE9F9C-3887-8E42-8DC4-5251CFED1311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604576FC-E2C0-0144-B5AC-829224B61A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11600" yWindow="4900" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="3860" yWindow="1420" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonalFeature" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,39 @@
     <t>&lt;ul&gt;
     &lt;li&gt; &lt;a href="file/NCCU-121-911事件回憶錄-20210912.pdf"&gt;911事件回憶錄&lt;/a&gt; &lt;/li&gt;
     &lt;li&gt; &lt;a href="file/NCCU-121-我是麻將資優生-20211104.pdf"&gt;我是麻將資優生&lt;/a&gt; &lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃和平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-121-黃和平.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">學歷：
+&lt;ul&gt;
+   &lt;li&gt;1971年畢業於國立政治大學銀行系&lt;/li&gt;
+&lt;/ul&gt;
+經歷：
+&lt;ul&gt;
+   &lt;li&gt;1971年5月1日  進入國泰航空公司，服務25年期滿退休。&lt;/li&gt;
+   &lt;li&gt;1996年 移民加拿大居住7年。 &lt;/li&gt;
+   &lt;li&gt;2003年 移民美國居住13年。&lt;/li&gt;
+   &lt;li&gt; 2016年 定居台灣。&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+    &lt;li&gt; &lt;a href="https://tcwang.github.io/NCCUBkAlumni/NCCU-13-MissMembers.html"&gt; 追憶故友李重威（七仙女之一）&lt;/a&gt; &lt;/li&gt;
 &lt;/ul&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,21 +558,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" customWidth="1"/>
+    <col min="3" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -562,67 +596,90 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="304">
+    <row r="2" spans="1:6" ht="192">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="208">
+    <row r="3" spans="1:6" ht="160">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="224">
+    <row r="4" spans="1:6" ht="160">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="192">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F5">
+    <sortCondition descending="1" ref="A2:A5"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/NCCU-121-PersonalFeature.xlsx
+++ b/db/NCCU-121-PersonalFeature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604576FC-E2C0-0144-B5AC-829224B61A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA31C95-8D6D-E645-B6ED-23004AD3B779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="1420" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="5760" yWindow="2460" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonalFeature" sheetId="1" r:id="rId1"/>
@@ -108,12 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;ul&gt;
-    &lt;li&gt; &lt;a href="file/NCCU-121-愛情傳奇指南山下-20211102.pdf"&gt;愛情傳奇-指南山下&lt;/a&gt; &lt;/li&gt;
-&lt;/ul&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>003</t>
   </si>
   <si>
@@ -187,6 +181,13 @@
   <si>
     <t>&lt;ul&gt;
     &lt;li&gt; &lt;a href="https://tcwang.github.io/NCCUBkAlumni/NCCU-13-MissMembers.html"&gt; 追憶故友李重威（七仙女之一）&lt;/a&gt; &lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+   &lt;li&gt;&lt;a href="file/TFW-FR-02-我的母親-20210803.pdf"&gt;我的母親&lt;/a&gt; &lt;/li&gt;
+    &lt;li&gt; &lt;a href="file/NCCU-121-愛情傳奇指南山下-20211102.pdf"&gt;愛情傳奇-指南山下&lt;/a&gt; &lt;/li&gt;
 &lt;/ul&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -561,10 +562,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -598,42 +599,42 @@
     </row>
     <row r="2" spans="1:6" ht="192">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="160">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="160">
@@ -650,10 +651,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="192">

--- a/db/NCCU-121-PersonalFeature.xlsx
+++ b/db/NCCU-121-PersonalFeature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA31C95-8D6D-E645-B6ED-23004AD3B779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7ADB4B-C691-4A4F-9F45-0A4D58661B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2460" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="2440" yWindow="1500" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonalFeature" sheetId="1" r:id="rId1"/>
@@ -94,12 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;ul&gt;
-    &lt;li&gt; &lt;a href="file/NCCU-121-黃頁的前世今生-20211102.pdf"&gt;黃頁的前世今生&lt;/a&gt; &lt;/li&gt;
-&lt;/ul&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王文枝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,13 +136,6 @@
    &lt;li&gt;2005年 正式退休，開啟無聊人生。 &lt;/li&gt;
 &lt;/ul&gt;
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;ul&gt;
-    &lt;li&gt; &lt;a href="file/NCCU-121-911事件回憶錄-20210912.pdf"&gt;911事件回憶錄&lt;/a&gt; &lt;/li&gt;
-    &lt;li&gt; &lt;a href="file/NCCU-121-我是麻將資優生-20211104.pdf"&gt;我是麻將資優生&lt;/a&gt; &lt;/li&gt;
-&lt;/ul&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -188,6 +175,22 @@
     <t>&lt;ul&gt;
    &lt;li&gt;&lt;a href="file/TFW-FR-02-我的母親-20210803.pdf"&gt;我的母親&lt;/a&gt; &lt;/li&gt;
     &lt;li&gt; &lt;a href="file/NCCU-121-愛情傳奇指南山下-20211102.pdf"&gt;愛情傳奇-指南山下&lt;/a&gt; &lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+    &lt;li&gt; &lt;a href="https://tcwang.github.io/NCCUBkAlumni/NCCU-13-MissMembers.html#Menu-B2"&gt;致愛妻王怡人&lt;/a&gt; &lt;/li&gt;
+    &lt;li&gt; &lt;a href="file/NCCU-121-先母任家珍女士百歲冥誕紀念文-20211109.pdf"&gt;先母任家珍女士百歲冥誕紀念文&lt;/a&gt; &lt;/li&gt;
+    &lt;li&gt; &lt;a href="file/NCCU-121-911事件回憶錄-20210912.pdf"&gt;911事件回憶錄&lt;/a&gt; &lt;/li&gt;
+    &lt;li&gt; &lt;a href="file/NCCU-121-我是麻將資優生-20211104.pdf"&gt;我是麻將資優生&lt;/a&gt; &lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+    &lt;li&gt; &lt;a href="file/CHT-008-台灣電信簡史-古早電報電話篇-20191001-F2.pdf"&gt;黃頁的前世今生&lt;/a&gt; &lt;/li&gt;
+    &lt;li&gt; &lt;a href="file/NCCU-121-黃頁的前世今生-20211102.pdf"&gt;黃頁的前世今生&lt;/a&gt; &lt;/li&gt;
 &lt;/ul&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -565,7 +568,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -599,42 +602,42 @@
     </row>
     <row r="2" spans="1:6" ht="192">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="160">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="160">
@@ -645,16 +648,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="192">
@@ -674,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/db/NCCU-121-PersonalFeature.xlsx
+++ b/db/NCCU-121-PersonalFeature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7ADB4B-C691-4A4F-9F45-0A4D58661B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5030222E-6BAA-364A-BA42-A82A0E50E4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="1500" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
@@ -189,7 +189,7 @@
   </si>
   <si>
     <t>&lt;ul&gt;
-    &lt;li&gt; &lt;a href="file/CHT-008-台灣電信簡史-古早電報電話篇-20191001-F2.pdf"&gt;黃頁的前世今生&lt;/a&gt; &lt;/li&gt;
+    &lt;li&gt; &lt;a href="file/CHT-008-台灣電信簡史-古早電報電話篇-20191001-F2.pdf"&gt;台灣電信簡史&lt;/a&gt; &lt;/li&gt;
     &lt;li&gt; &lt;a href="file/NCCU-121-黃頁的前世今生-20211102.pdf"&gt;黃頁的前世今生&lt;/a&gt; &lt;/li&gt;
 &lt;/ul&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>

--- a/db/NCCU-121-PersonalFeature.xlsx
+++ b/db/NCCU-121-PersonalFeature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5030222E-6BAA-364A-BA42-A82A0E50E4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD976F4-2208-8C41-9521-1EF009685E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1500" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="15580" yWindow="4900" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonalFeature" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,40 @@
     <t>&lt;ul&gt;
     &lt;li&gt; &lt;a href="file/CHT-008-台灣電信簡史-古早電報電話篇-20191001-F2.pdf"&gt;台灣電信簡史&lt;/a&gt; &lt;/li&gt;
     &lt;li&gt; &lt;a href="file/NCCU-121-黃頁的前世今生-20211102.pdf"&gt;黃頁的前世今生&lt;/a&gt; &lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林孫源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-121-林孫源.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">學歷：
+&lt;ul&gt;
+   &lt;li&gt;1971年畢業於國立政治大學銀行系&lt;/li&gt;
+&lt;/ul&gt;
+經歷：
+&lt;ul&gt;
+   &lt;li&gt;中央銀行外匯局局長&lt;/li&gt;
+   &lt;li&gt;兼任中國輸出入銀行理事6年。&lt;/li&gt;
+   &lt;li&gt;兼任外貿協會董事6年。&lt;/li&gt;
+   &lt;li&gt;擔任中美洲銀行執行董事2年。&lt;/li&gt;
+   &lt;li&gt;擔任華南銀行獨立董事6年7個月。&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+    &lt;li&gt; &lt;a href="file/NCCU-121-小學課文回憶.pdf"&gt; 小學課文回憶&lt;/a&gt; &lt;/li&gt;
 &lt;/ul&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -562,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -600,89 +634,109 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="192">
+    <row r="2" spans="1:6" ht="208">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="160">
+    <row r="3" spans="1:6" ht="192">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="160">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="192">
+    <row r="5" spans="1:6" ht="160">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="192">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F5">
-    <sortCondition descending="1" ref="A2:A5"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F6">
+    <sortCondition descending="1" ref="A3:A6"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/NCCU-121-PersonalFeature.xlsx
+++ b/db/NCCU-121-PersonalFeature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD976F4-2208-8C41-9521-1EF009685E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C091FE9-4C31-E547-BEFC-9C134594ED2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15580" yWindow="4900" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="11620" yWindow="4900" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonalFeature" sheetId="1" r:id="rId1"/>
@@ -224,6 +224,7 @@
   </si>
   <si>
     <t>&lt;ul&gt;
+    &lt;li&gt; &lt;a href="NCCU-12-PersonalFeature-01.html"&gt; 中央銀行外匯局簡介&lt;/a&gt; &lt;/li&gt;
     &lt;li&gt; &lt;a href="file/NCCU-121-小學課文回憶.pdf"&gt; 小學課文回憶&lt;/a&gt; &lt;/li&gt;
 &lt;/ul&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>

--- a/db/NCCU-121-PersonalFeature.xlsx
+++ b/db/NCCU-121-PersonalFeature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C091FE9-4C31-E547-BEFC-9C134594ED2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18A6FF6-5350-F64C-A2B5-1ECCB7912B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="4900" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="9340" yWindow="6280" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonalFeature" sheetId="1" r:id="rId1"/>
@@ -180,15 +180,6 @@
   </si>
   <si>
     <t>&lt;ul&gt;
-    &lt;li&gt; &lt;a href="https://tcwang.github.io/NCCUBkAlumni/NCCU-13-MissMembers.html#Menu-B2"&gt;致愛妻王怡人&lt;/a&gt; &lt;/li&gt;
-    &lt;li&gt; &lt;a href="file/NCCU-121-先母任家珍女士百歲冥誕紀念文-20211109.pdf"&gt;先母任家珍女士百歲冥誕紀念文&lt;/a&gt; &lt;/li&gt;
-    &lt;li&gt; &lt;a href="file/NCCU-121-911事件回憶錄-20210912.pdf"&gt;911事件回憶錄&lt;/a&gt; &lt;/li&gt;
-    &lt;li&gt; &lt;a href="file/NCCU-121-我是麻將資優生-20211104.pdf"&gt;我是麻將資優生&lt;/a&gt; &lt;/li&gt;
-&lt;/ul&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;ul&gt;
     &lt;li&gt; &lt;a href="file/CHT-008-台灣電信簡史-古早電報電話篇-20191001-F2.pdf"&gt;台灣電信簡史&lt;/a&gt; &lt;/li&gt;
     &lt;li&gt; &lt;a href="file/NCCU-121-黃頁的前世今生-20211102.pdf"&gt;黃頁的前世今生&lt;/a&gt; &lt;/li&gt;
 &lt;/ul&gt;</t>
@@ -226,6 +217,17 @@
     <t>&lt;ul&gt;
     &lt;li&gt; &lt;a href="NCCU-12-PersonalFeature-01.html"&gt; 中央銀行外匯局簡介&lt;/a&gt; &lt;/li&gt;
     &lt;li&gt; &lt;a href="file/NCCU-121-小學課文回憶.pdf"&gt; 小學課文回憶&lt;/a&gt; &lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+    &lt;li&gt; &lt;a href="file/NCCU-122-左宗棠雜記-01.pdf"&gt;左宗棠雜記&lt;/a&gt; &lt;/li&gt;
+    &lt;li&gt; &lt;a href="file/NCCU-122-左宗棠雜記-02.pdf"&gt;左宗棠介紹&lt;/a&gt; &lt;/li&gt;
+    &lt;li&gt; &lt;a href="https://tcwang.github.io/NCCUBkAlumni/NCCU-13-MissMembers.html#Menu-B2"&gt;致愛妻王怡人&lt;/a&gt; &lt;/li&gt;
+    &lt;li&gt; &lt;a href="file/NCCU-121-先母任家珍女士百歲冥誕紀念文-20211109.pdf"&gt;先母任家珍女士百歲冥誕紀念文&lt;/a&gt; &lt;/li&gt;
+    &lt;li&gt; &lt;a href="file/NCCU-121-911事件回憶錄-20210912.pdf"&gt;911事件回憶錄&lt;/a&gt; &lt;/li&gt;
+    &lt;li&gt; &lt;a href="file/NCCU-121-我是麻將資優生-20211104.pdf"&gt;我是麻將資優生&lt;/a&gt; &lt;/li&gt;
 &lt;/ul&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,10 +602,10 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -637,22 +639,22 @@
     </row>
     <row r="2" spans="1:6" ht="208">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="192">
@@ -675,7 +677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="160">
+    <row r="4" spans="1:6" ht="224">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -692,7 +694,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="160">
@@ -732,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
